--- a/Output/Table 3 - Transmission chains.xlsx
+++ b/Output/Table 3 - Transmission chains.xlsx
@@ -237,7 +237,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -354,7 +354,7 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -661,7 +661,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" activeCellId="5" sqref="F3:F4 F6:F9 F11 F13 F15 F17:F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,9 +669,9 @@
     <col min="1" max="1" width="5.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
@@ -1044,28 +1044,29 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="11">
         <v>5</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1156,10 +1157,7 @@
       <c r="H19" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G21" s="20">
-        <f>AVERAGE(G17:G18,G15,G13,G11,G6:G9,G3:G4)</f>
-        <v>3.0909090909090908</v>
-      </c>
+      <c r="G21" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
